--- a/biology/Botanique/Pancratium_zeylanicum/Pancratium_zeylanicum.xlsx
+++ b/biology/Botanique/Pancratium_zeylanicum/Pancratium_zeylanicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pancratium zeylanicum, le lys calice de Ceylan, est une espèce de plante vivace à bulbe. Elle appartient à la famille des Liliaceae selon la classification classique. La classification phylogénétique la place dans la famille des Amaryllidaceae (ou optionnellement dans celle des Alliaceae).
 Elle est originaire d'Inde et de différentes îles de l'océan Indien où elle est appelée couramment fleur de la pluie. En effet, cette plante fleurit pendant toute la saison des pluies.
